--- a/biology/Botanique/Arbre_de_Jade/Arbre_de_Jade.xlsx
+++ b/biology/Botanique/Arbre_de_Jade/Arbre_de_Jade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbre de Jade est le nom vernaculaire donné à différentes espèces de plantes telles que :
 Crassula ovata, synonyme de Crassula argentea et Crassula portulacea,
@@ -515,9 +527,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre de jade est considéré comme une plante dépolluante qui absorbe l'ammoniac. Certains lui prêtent la vertu de réduire les ondes électromagnétiques[1], mais cela n'a jamais été prouvé malgré certaines études[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre de jade est considéré comme une plante dépolluante qui absorbe l'ammoniac. Certains lui prêtent la vertu de réduire les ondes électromagnétiques, mais cela n'a jamais été prouvé malgré certaines études.
 </t>
         </is>
       </c>
